--- a/rental_data.xlsx
+++ b/rental_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapelan/Downloads/NaviBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD8DD2C-6DEC-7E4B-9319-E5FB7906D6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7A5D24-9C0A-2749-A791-09F05DBC07B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="640" windowWidth="28480" windowHeight="17180" activeTab="1" xr2:uid="{EC73D2C8-4BF9-5345-9D53-039007822FE8}"/>
+    <workbookView xWindow="140" yWindow="640" windowWidth="28480" windowHeight="17180" xr2:uid="{EC73D2C8-4BF9-5345-9D53-039007822FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Теплоходы" sheetId="1" r:id="rId1"/>
@@ -497,13 +497,13 @@
     <t>Мытнинская наб.,д.1</t>
   </si>
   <si>
-    <t>Аптекарская наб</t>
-  </si>
-  <si>
     <t>Синопская наб. 10</t>
   </si>
   <si>
     <t>https://teplohod-restoran.ru/product/moskva_99/</t>
+  </si>
+  <si>
+    <t>Аптекарская наб 20</t>
   </si>
 </sst>
 </file>
@@ -1210,9 +1210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3B44BE-0386-0045-804F-512BE6AB2629}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2094,7 +2094,7 @@
         <v>123</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D44" s="1">
         <v>3000</v>
@@ -2211,10 +2211,10 @@
         <v>146</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="1">
         <v>6000</v>
@@ -2287,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123645B5-8653-634D-8B6E-36FD1C9E7A64}">
   <dimension ref="A1:H1121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1052" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1068" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1063" sqref="G1063:G1065"/>
     </sheetView>
   </sheetViews>

--- a/rental_data.xlsx
+++ b/rental_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapelan/Downloads/NaviBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBE4051-161A-124F-8487-868F8B2A6B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8935AC89-277F-4F43-93A6-77AF3F584EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="640" windowWidth="28480" windowHeight="17180" activeTab="1" xr2:uid="{EC73D2C8-4BF9-5345-9D53-039007822FE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4856" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4939" uniqueCount="165">
   <si>
     <t>Название теплохода</t>
   </si>
@@ -520,6 +520,18 @@
   <si>
     <t>Мойки 56</t>
   </si>
+  <si>
+    <t>Сити Блюз</t>
+  </si>
+  <si>
+    <t>https://teplohod-restoran.ru/product/siti-blyuz/</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Университетская наб. 17</t>
+  </si>
 </sst>
 </file>
 
@@ -753,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -888,6 +900,7 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1223,11 +1236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3B44BE-0386-0045-804F-512BE6AB2629}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2245,7 +2258,7 @@
       <c r="A51" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C51" s="40" t="s">
@@ -2265,7 +2278,7 @@
       <c r="A52" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C52" s="40" t="s">
@@ -2279,6 +2292,26 @@
       </c>
       <c r="F52" s="6" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2332,6 +2365,9 @@
     <hyperlink ref="B48" r:id="rId46" xr:uid="{5ED98B0A-D5CA-AA47-B52C-F3395F865DFA}"/>
     <hyperlink ref="B49" r:id="rId47" xr:uid="{D50C178C-E652-B640-A0B3-D8801BE7EFC6}"/>
     <hyperlink ref="B50" r:id="rId48" xr:uid="{48A8CC4E-2F14-EF42-8573-D13A8E7F73ED}"/>
+    <hyperlink ref="B53" r:id="rId49" xr:uid="{C854F13E-470D-1342-8E4B-C55EF5D47D16}"/>
+    <hyperlink ref="B52" r:id="rId50" xr:uid="{98DDAD6B-FF80-DF47-8C65-5CCF5F21FA98}"/>
+    <hyperlink ref="B51" r:id="rId51" xr:uid="{F73C0AF6-655C-8146-8D37-13DDA8AB4D5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2340,11 +2376,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123645B5-8653-634D-8B6E-36FD1C9E7A64}">
-  <dimension ref="A1:H1161"/>
+  <dimension ref="A1:H1181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="1" topLeftCell="A1163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1178" sqref="A1178:XFD1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28612,7 +28648,7 @@
     </row>
     <row r="1142" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1142" s="8" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B1142" s="18" t="s">
         <v>10</v>
@@ -29068,6 +29104,466 @@
       </c>
       <c r="G1161" s="17">
         <v>38000</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1162" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1162" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1162" s="56">
+        <v>45658</v>
+      </c>
+      <c r="D1162" s="56">
+        <v>45791</v>
+      </c>
+      <c r="E1162" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1162" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1162" s="23">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1163" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1163" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1163" s="56">
+        <v>45658</v>
+      </c>
+      <c r="D1163" s="56">
+        <v>45791</v>
+      </c>
+      <c r="E1163" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1163" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1163" s="25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1164" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1164" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1164" s="56">
+        <v>45658</v>
+      </c>
+      <c r="D1164" s="56">
+        <v>45791</v>
+      </c>
+      <c r="E1164" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1164" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1164" s="25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1165" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1165" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1165" s="56">
+        <v>45658</v>
+      </c>
+      <c r="D1165" s="56">
+        <v>45791</v>
+      </c>
+      <c r="E1165" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1165" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1165" s="25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1166" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1166" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1166" s="118">
+        <v>45905</v>
+      </c>
+      <c r="D1166" s="118">
+        <v>46022</v>
+      </c>
+      <c r="E1166" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1166" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1166" s="95">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1167" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1167" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1167" s="118">
+        <v>45905</v>
+      </c>
+      <c r="D1167" s="118">
+        <v>46022</v>
+      </c>
+      <c r="E1167" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1167" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1167" s="97">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1168" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1168" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1168" s="118">
+        <v>45905</v>
+      </c>
+      <c r="D1168" s="118">
+        <v>46022</v>
+      </c>
+      <c r="E1168" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1168" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1168" s="97">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1169" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1169" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1169" s="118">
+        <v>45905</v>
+      </c>
+      <c r="D1169" s="118">
+        <v>46022</v>
+      </c>
+      <c r="E1169" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1169" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1169" s="97">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1170" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1170" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1170" s="58">
+        <v>45792</v>
+      </c>
+      <c r="D1170" s="58">
+        <v>45817</v>
+      </c>
+      <c r="E1170" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1170" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1170" s="59">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1171" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1171" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1171" s="58">
+        <v>45792</v>
+      </c>
+      <c r="D1171" s="58">
+        <v>45817</v>
+      </c>
+      <c r="E1171" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1171" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1171" s="59">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1172" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1172" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1172" s="58">
+        <v>45792</v>
+      </c>
+      <c r="D1172" s="58">
+        <v>45817</v>
+      </c>
+      <c r="E1172" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1172" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1172" s="59">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1173" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1173" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1173" s="58">
+        <v>45792</v>
+      </c>
+      <c r="D1173" s="58">
+        <v>45817</v>
+      </c>
+      <c r="E1173" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1173" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1173" s="59">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1174" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1174" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1174" s="57">
+        <v>45839</v>
+      </c>
+      <c r="D1174" s="57">
+        <v>45904</v>
+      </c>
+      <c r="E1174" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1174" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1174" s="27">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1175" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1175" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1175" s="57">
+        <v>45839</v>
+      </c>
+      <c r="D1175" s="57">
+        <v>45904</v>
+      </c>
+      <c r="E1175" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1175" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1175" s="27">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1176" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1176" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1176" s="57">
+        <v>45839</v>
+      </c>
+      <c r="D1176" s="57">
+        <v>45904</v>
+      </c>
+      <c r="E1176" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1176" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1176" s="27">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1177" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1177" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1177" s="57">
+        <v>45839</v>
+      </c>
+      <c r="D1177" s="57">
+        <v>45904</v>
+      </c>
+      <c r="E1177" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1177" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1177" s="27">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1178" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1178" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1178" s="61">
+        <v>45818</v>
+      </c>
+      <c r="D1178" s="61">
+        <v>45838</v>
+      </c>
+      <c r="E1178" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1178" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1178" s="29">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1179" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1179" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1179" s="61">
+        <v>45818</v>
+      </c>
+      <c r="D1179" s="61">
+        <v>45838</v>
+      </c>
+      <c r="E1179" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1179" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1179" s="29">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1180" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1180" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1180" s="61">
+        <v>45818</v>
+      </c>
+      <c r="D1180" s="61">
+        <v>45838</v>
+      </c>
+      <c r="E1180" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1180" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1180" s="29">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1181" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1181" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1181" s="61">
+        <v>45818</v>
+      </c>
+      <c r="D1181" s="61">
+        <v>45838</v>
+      </c>
+      <c r="E1181" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1181" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1181" s="29">
+        <v>70000</v>
       </c>
     </row>
   </sheetData>

--- a/rental_data.xlsx
+++ b/rental_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapelan/Downloads/NaviBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CC4BBE-BB56-1D4E-A23A-A62116CC4AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD3440F-F718-5645-8C6A-0BECEE444536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="640" windowWidth="28480" windowHeight="17180" xr2:uid="{EC73D2C8-4BF9-5345-9D53-039007822FE8}"/>
+    <workbookView xWindow="140" yWindow="640" windowWidth="28480" windowHeight="17180" activeTab="1" xr2:uid="{EC73D2C8-4BF9-5345-9D53-039007822FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Теплоходы" sheetId="1" r:id="rId1"/>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3B44BE-0386-0045-804F-512BE6AB2629}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2450,9 +2450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123645B5-8653-634D-8B6E-36FD1C9E7A64}">
   <dimension ref="A1:H1271"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A241" sqref="A241"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A641" sqref="A641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17082,7 +17082,7 @@
     </row>
     <row r="636" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A636" s="17" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B636" s="17" t="s">
         <v>20</v>
@@ -17105,7 +17105,7 @@
     </row>
     <row r="637" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A637" s="17" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B637" s="17" t="s">
         <v>20</v>
@@ -17128,7 +17128,7 @@
     </row>
     <row r="638" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A638" s="17" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B638" s="17" t="s">
         <v>20</v>
@@ -17151,7 +17151,7 @@
     </row>
     <row r="639" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A639" s="17" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B639" s="17" t="s">
         <v>20</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="640" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A640" s="17" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B640" s="17" t="s">
         <v>20</v>
@@ -17197,7 +17197,7 @@
     </row>
     <row r="641" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A641" s="17" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B641" s="17" t="s">
         <v>20</v>

--- a/rental_data.xlsx
+++ b/rental_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapelan/Downloads/NaviBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD3440F-F718-5645-8C6A-0BECEE444536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0930A4BB-2548-F046-B41F-444728BADB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="640" windowWidth="28480" windowHeight="17180" activeTab="1" xr2:uid="{EC73D2C8-4BF9-5345-9D53-039007822FE8}"/>
+    <workbookView xWindow="140" yWindow="640" windowWidth="28480" windowHeight="17180" xr2:uid="{EC73D2C8-4BF9-5345-9D53-039007822FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Теплоходы" sheetId="1" r:id="rId1"/>
@@ -1247,9 +1247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3B44BE-0386-0045-804F-512BE6AB2629}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1714,7 +1714,7 @@
         <v>87</v>
       </c>
       <c r="D23" s="1">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="1">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1754,7 +1754,7 @@
         <v>87</v>
       </c>
       <c r="D25" s="1">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1814,7 +1814,7 @@
         <v>160</v>
       </c>
       <c r="D28" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>96</v>
       </c>
       <c r="D29" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1854,7 +1854,7 @@
         <v>160</v>
       </c>
       <c r="D30" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>101</v>
       </c>
       <c r="D31" s="1">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1894,7 +1894,7 @@
         <v>101</v>
       </c>
       <c r="D32" s="1">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1914,7 +1914,7 @@
         <v>101</v>
       </c>
       <c r="D33" s="1">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1934,7 +1934,7 @@
         <v>101</v>
       </c>
       <c r="D34" s="1">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>117</v>
       </c>
       <c r="D44" s="1">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -2450,9 +2450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123645B5-8653-634D-8B6E-36FD1C9E7A64}">
   <dimension ref="A1:H1271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A641" sqref="A641"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A646" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H659" sqref="H659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17284,7 +17284,7 @@
         <v>81</v>
       </c>
       <c r="G644" s="80">
-        <v>21000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="645" spans="1:7" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -17376,7 +17376,7 @@
         <v>81</v>
       </c>
       <c r="G648" s="8">
-        <v>21000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="649" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -17422,7 +17422,7 @@
         <v>81</v>
       </c>
       <c r="G650" s="47">
-        <v>27000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="651" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -17468,7 +17468,7 @@
         <v>81</v>
       </c>
       <c r="G652" s="47">
-        <v>30000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="653" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -17514,7 +17514,7 @@
         <v>81</v>
       </c>
       <c r="G654" s="11">
-        <v>27000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="655" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -17560,7 +17560,7 @@
         <v>81</v>
       </c>
       <c r="G656" s="11">
-        <v>30000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="657" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -17629,7 +17629,7 @@
         <v>130</v>
       </c>
       <c r="G659" s="17">
-        <v>32000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="660" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">

--- a/rental_data.xlsx
+++ b/rental_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapelan/Downloads/NaviBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0930A4BB-2548-F046-B41F-444728BADB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19DA6F8-D074-3D44-9CA7-F6C2631A51D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="640" windowWidth="28480" windowHeight="17180" xr2:uid="{EC73D2C8-4BF9-5345-9D53-039007822FE8}"/>
   </bookViews>
